--- a/beta_version/excel_files/test.xlsx
+++ b/beta_version/excel_files/test.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WV50 FILTER</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cover atascasdo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12:50:14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mañana</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-0.01 minutos</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
